--- a/data/trans_dic/P14_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo)</t>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo) (tasa de respuesta: 99,95%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,64%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,34</t>
+          <t>0,0; 4,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 17,89</t>
+          <t>6,72; 17,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 7,54</t>
+          <t>1,12; 6,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 14,45</t>
+          <t>6,35; 15,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,99; 4,63</t>
+          <t>0,97; 4,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 14,51</t>
+          <t>7,44; 14,21</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>17,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,62%</t>
+          <t>14,9%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,98</t>
+          <t>1,58; 7,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,21; 18,21</t>
+          <t>8,73; 18,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 9,61</t>
+          <t>3,0; 9,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,41; 21,72</t>
+          <t>12,76; 22,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 7,16</t>
+          <t>2,74; 7,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,36; 18,17</t>
+          <t>11,8; 18,59</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,5%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>17,09%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,5</t>
+          <t>3,22; 9,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,17; 21,53</t>
+          <t>12,31; 21,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 12,51</t>
+          <t>5,6; 11,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 21,71</t>
+          <t>14,07; 22,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 9,26</t>
+          <t>5,16; 9,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 20,07</t>
+          <t>14,08; 20,31</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,21%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>15,47%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 11,22</t>
+          <t>4,68; 10,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,06; 22,11</t>
+          <t>12,33; 20,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,92</t>
+          <t>2,27; 6,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 18,9</t>
+          <t>10,99; 18,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,72</t>
+          <t>4,02; 7,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,04</t>
+          <t>12,88; 18,23</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,43%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 6,58</t>
+          <t>1,71; 7,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 17,23</t>
+          <t>8,8; 16,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 7,32</t>
+          <t>2,04; 7,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,6; 15,65</t>
+          <t>7,04; 14,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,44; 6,09</t>
+          <t>2,21; 5,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,15; 14,89</t>
+          <t>9,07; 14,24</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>4,0%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 5,99</t>
+          <t>0,46; 5,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,7; 11,37</t>
+          <t>0,86; 8,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,72</t>
+          <t>0,37; 3,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,31</t>
+          <t>2,52; 8,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,48</t>
+          <t>0,53; 3,06</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 7,24</t>
+          <t>2,25; 7,15</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1082,27 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,31%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,07; 5,31</t>
+          <t>3,13; 5,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,69; 14,48</t>
+          <t>10,78; 14,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,56</t>
+          <t>3,56; 5,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,81; 14,04</t>
+          <t>10,9; 14,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,07</t>
+          <t>3,6; 5,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,25; 13,69</t>
+          <t>11,31; 13,66</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con realización de prueba diagnóstica COVID-19 (muestra de sangre en el dedo) (tasa de respuesta: 99,95%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>7657</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>59441</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>14374</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>51127</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>22031</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>110568</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24081</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35238; 93693</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5228; 31850</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32716; 80077</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>9405; 44045</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>77271; 147650</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21354</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>72913</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>29000</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>87063</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>50354</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>159977</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9078; 44318</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>49376; 104059</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15558; 49969</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>64839; 116448</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29974; 82349</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>126690; 199590</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>38275</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>112960</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60943</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>125757</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>99218</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>238718</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>22080; 62149</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>83541; 146445</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>39910; 84192</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>101090; 158124</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72169; 133932</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>196741; 283675</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>47721</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>107038</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>28196</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>96777</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>75917</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>203814</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>30301; 70799</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>79630; 133976</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15557; 47600</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>73763; 121308</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>53603; 101617</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>169718; 240091</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>17831</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>62383</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21045</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>53754</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>38876</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>116137</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8469; 35923</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>44167; 83966</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10396; 37184</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>35413; 74650</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>22201; 57981</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>91157; 143169</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>9312</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>16598</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8687</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31982</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>17999</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>48579</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2497; 27796</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4564; 47290</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2675; 25662</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>17254; 56531</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6691; 38704</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>27276; 86777</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>142150</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>431332</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>162245</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>446460</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>304394</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>877793</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>107971; 181130</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>371553; 496884</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>128575; 203063</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>392470; 505888</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>254538; 364545</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>796946; 962385</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>